--- a/TestPlan (1).xlsx
+++ b/TestPlan (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\ISD.ICT.20232.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{3B859F87-75C2-4DE6-9294-DFF6F6BA4B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCDA0BE-BBFE-4F5C-8277-65374F7D90CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADE249-2423-4576-A105-F4542703EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -47,10 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="179">
-  <si>
-    <t>GROUP 9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="210">
   <si>
     <t xml:space="preserve">
 &lt;All notations inside the angle bracket are not part of this document, for its purpose is for extra instruction. When using this document, please erase all these notations and/or replace them with corresponding content as instructed&gt;
@@ -627,6 +624,102 @@
   <si>
     <t>Record Label</t>
   </si>
+  <si>
+    <t>GROUP 6</t>
+  </si>
+  <si>
+    <t>Approve order</t>
+  </si>
+  <si>
+    <t>Product manager approves an order</t>
+  </si>
+  <si>
+    <t>4.1.2. Test Suite for UC002-"Reject order"</t>
+  </si>
+  <si>
+    <t>Reject order</t>
+  </si>
+  <si>
+    <t>Product manager rejects an order</t>
+  </si>
+  <si>
+    <t>4.1.1. Test Suite for UC006-"Block user"</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>4.1.2. Test Suite for UC006-"Unblock user"</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>4.1.2. Test Suite for UC007-"Update Cart"</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>Update Cart</t>
+  </si>
+  <si>
+    <t>Update the quantity of the product in cart</t>
+  </si>
+  <si>
+    <t>4.1.2. Test Suite for UC008-"View Order Information"</t>
+  </si>
+  <si>
+    <t>TS006</t>
+  </si>
+  <si>
+    <t>View Order Information</t>
+  </si>
+  <si>
+    <t>View the information of PENDING order</t>
+  </si>
+  <si>
+    <t>4.1.2. Test Suite for UC001-"Aprove order"</t>
+  </si>
+  <si>
+    <t>5.5. Test Case Specification for "Update cart"</t>
+  </si>
+  <si>
+    <t>Test add item to cart</t>
+  </si>
+  <si>
+    <t>Trinh Manh Dung</t>
+  </si>
+  <si>
+    <t>18/6/2024</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Add Item to Cart Successfully</t>
+  </si>
+  <si>
+    <t>Open the Cart Page</t>
+  </si>
+  <si>
+    <t>The system displays a list of items in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Select increase the item (not exceed the inventory)</t>
+  </si>
+  <si>
+    <t>The system display the increased quantity of the item</t>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,6 +899,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -850,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1274,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1182,7 +1318,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1364,6 +1500,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1478,6 +1623,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1526,188 +1674,104 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1722,19 +1786,100 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1746,14 +1891,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2244,9 +2444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2284,7 +2484,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2390,7 +2590,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2532,7 +2732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2543,15 +2743,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A32" zoomScale="115" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="36" spans="4:4" ht="26.25">
+    <row r="36" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D36" s="54" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2571,179 +2771,179 @@
       <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.15" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+    <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2763,51 +2963,51 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="4:5" ht="17.25">
+    <row r="4" spans="4:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E4" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2832,231 +3032,231 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A14" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3066,10 +3266,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25">
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="13.9" customHeight="1">
+    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3079,7 +3279,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="13.9" customHeight="1">
+    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3089,7 +3289,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="13.9" customHeight="1">
+    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3099,7 +3299,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="13.9" customHeight="1">
+    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3109,7 +3309,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="13.9" customHeight="1">
+    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3119,7 +3319,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="13.9" customHeight="1">
+    <row r="32" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3129,7 +3329,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1">
+    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3139,7 +3339,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3149,7 +3349,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1">
+    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -3159,7 +3359,7 @@
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -3169,7 +3369,7 @@
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
@@ -3179,7 +3379,7 @@
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
@@ -3189,7 +3389,7 @@
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
@@ -3199,7 +3399,7 @@
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
@@ -3209,7 +3409,7 @@
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -3219,7 +3419,7 @@
       <c r="G41" s="50"/>
       <c r="H41" s="50"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -3229,7 +3429,7 @@
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -3239,7 +3439,7 @@
       <c r="G43" s="50"/>
       <c r="H43" s="50"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
@@ -3249,7 +3449,7 @@
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -3259,7 +3459,7 @@
       <c r="G45" s="50"/>
       <c r="H45" s="50"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
@@ -3269,7 +3469,7 @@
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -3279,7 +3479,7 @@
       <c r="G47" s="50"/>
       <c r="H47" s="50"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -3289,7 +3489,7 @@
       <c r="G48" s="50"/>
       <c r="H48" s="50"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -3319,170 +3519,170 @@
       <selection activeCell="A3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1">
+    <row r="15" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3492,7 +3692,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1">
+    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3502,7 +3702,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1">
+    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3512,7 +3712,7 @@
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1">
+    <row r="23" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -3522,7 +3722,7 @@
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="1:8" ht="13.9" customHeight="1">
+    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -3532,7 +3732,7 @@
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" customHeight="1">
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -3542,7 +3742,7 @@
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" customHeight="1">
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -3552,7 +3752,7 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8" ht="17.45" customHeight="1">
+    <row r="27" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -3562,7 +3762,7 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45" customHeight="1">
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -3572,7 +3772,7 @@
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1">
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -3582,7 +3782,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
     </row>
-    <row r="30" spans="1:8" ht="14.45" customHeight="1">
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3592,7 +3792,7 @@
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8" ht="14.45" customHeight="1">
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -3602,7 +3802,7 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:8" ht="14.45" customHeight="1">
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -3612,7 +3812,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" spans="1:8" ht="14.45" customHeight="1">
+    <row r="33" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3622,7 +3822,7 @@
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
     </row>
-    <row r="34" spans="1:8" ht="14.45" customHeight="1">
+    <row r="34" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -3632,7 +3832,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3642,7 +3842,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" customHeight="1">
+    <row r="36" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -3652,7 +3852,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
     </row>
-    <row r="37" spans="1:8" ht="14.45" customHeight="1">
+    <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -3662,7 +3862,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
     </row>
-    <row r="38" spans="1:8" ht="17.45" customHeight="1">
+    <row r="38" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -3672,7 +3872,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
     </row>
-    <row r="39" spans="1:8" ht="14.45" customHeight="1">
+    <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -3682,7 +3882,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3692,7 +3892,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3702,7 +3902,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3712,7 +3912,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3722,7 +3922,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3732,7 +3932,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3742,7 +3942,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3752,7 +3952,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3762,7 +3962,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3772,7 +3972,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3782,7 +3982,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3792,7 +3992,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3821,224 +4021,224 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4051,56 +4251,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="41.45" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="17">
         <f>COUNTIF(D5:D8,"=x")</f>
@@ -4115,29 +4315,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="17">
         <f>COUNTIF(D5:O5,"=x")</f>
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ref="C6:C7" si="0">COUNTIF(D6:O6,"=x")</f>
@@ -4146,29 +4346,29 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17">
@@ -4179,77 +4379,77 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76" t="s">
+      <c r="G12" s="81"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="82" t="s">
+      <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="C13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="91"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-    </row>
-    <row r="15" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="95"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="39"/>
@@ -4257,22 +4457,293 @@
       <c r="E16" s="39"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="34.5" customHeight="1"/>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1"/>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1"/>
-    <row r="22" spans="1:6" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="81"/>
+    </row>
+    <row r="19" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="202"/>
+    </row>
+    <row r="20" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="81"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="199"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="202"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="199"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="201" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="202"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="81"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="201" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="202"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="81"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="198" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="201" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="202"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="81"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="201" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="202"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="33">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E15"/>
@@ -4291,13 +4762,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A265" zoomScale="130" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276:C276"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A287" zoomScale="130" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281:J301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -4308,61 +4779,61 @@
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.9" customHeight="1">
+    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="144"/>
       <c r="C3" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="144"/>
       <c r="F3" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="140" t="s">
+      <c r="G4" s="139"/>
+      <c r="H4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -4374,13 +4845,13 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -4390,7 +4861,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -4402,30 +4873,30 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A8" s="133" t="s">
+    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="146"/>
+      <c r="C8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="133" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135" t="s">
+      <c r="G8" s="149"/>
+      <c r="H8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="20"/>
@@ -4434,67 +4905,67 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="13.9" customHeight="1">
+    <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.9" customHeight="1">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.9" customHeight="1">
+      <c r="B11" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.9" customHeight="1">
+      <c r="B12" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
-      <c r="B13" s="122" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.9" customHeight="1">
+      <c r="B13" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.9" customHeight="1">
+      <c r="B14" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -4502,7 +4973,7 @@
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -4514,133 +4985,133 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>1</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="124"/>
+      <c r="D18" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2</v>
       </c>
-      <c r="B19" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="122">
+      <c r="B19" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125">
         <v>1234567899</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>3</v>
       </c>
-      <c r="B20" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
+      <c r="B20" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="127"/>
+      <c r="D20" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>4</v>
       </c>
-      <c r="B21" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
+      <c r="B21" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>5</v>
       </c>
-      <c r="B22" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
+      <c r="B22" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="109"/>
+      <c r="C24" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -4650,240 +5121,240 @@
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="33"/>
     </row>
-    <row r="26" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A26" s="181" t="s">
+    <row r="26" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="C26" s="158"/>
+      <c r="D26" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184" t="s">
+      <c r="E26" s="161"/>
+      <c r="F26" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="185"/>
-      <c r="F26" s="187" t="s">
+      <c r="G26" s="154"/>
+      <c r="H26" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="188"/>
-      <c r="H26" s="181" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="182"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>1</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="151"/>
+      <c r="D28" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="120" t="s">
+      <c r="E28" s="124"/>
+      <c r="F28" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="G28" s="105"/>
+      <c r="H28" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>2</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="102"/>
-      <c r="H29" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.5" customHeight="1">
+      <c r="E29" s="124"/>
+      <c r="F29" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="105"/>
+      <c r="H29" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>3</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="151"/>
+      <c r="D30" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="180"/>
-      <c r="D30" s="120" t="s">
+      <c r="E30" s="124"/>
+      <c r="F30" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="105"/>
+      <c r="H30" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+    </row>
+    <row r="36" spans="10:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="10:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41" spans="10:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="52"/>
+    </row>
+    <row r="43" spans="10:10" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="10:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="10:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="52"/>
+    </row>
+    <row r="46" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="52"/>
+    </row>
+    <row r="47" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="52"/>
+    </row>
+    <row r="48" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="52"/>
+    </row>
+    <row r="49" spans="10:10" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="52"/>
+    </row>
+    <row r="52" spans="10:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="52"/>
+    </row>
+    <row r="53" spans="10:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="52"/>
+    </row>
+    <row r="54" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="52"/>
+    </row>
+    <row r="55" spans="10:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="52"/>
+    </row>
+    <row r="56" spans="10:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="52"/>
+    </row>
+    <row r="57" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="52"/>
+    </row>
+    <row r="58" spans="10:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="52"/>
+    </row>
+    <row r="59" spans="10:10" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="52"/>
+    </row>
+    <row r="60" spans="10:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="53"/>
+    </row>
+    <row r="61" spans="10:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="10:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="10:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="10:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-    </row>
-    <row r="36" spans="10:10" ht="12" customHeight="1"/>
-    <row r="37" spans="10:10" hidden="1">
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="10:10" hidden="1">
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="10:10" ht="15" hidden="1" customHeight="1">
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="10:10" hidden="1">
-      <c r="J40" s="52"/>
-    </row>
-    <row r="41" spans="10:10" ht="15" hidden="1" customHeight="1">
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="10:10" hidden="1">
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="10:10" ht="16.149999999999999" hidden="1" customHeight="1">
-      <c r="J43" s="52"/>
-    </row>
-    <row r="44" spans="10:10" ht="14.45" hidden="1" customHeight="1">
-      <c r="J44" s="52"/>
-    </row>
-    <row r="45" spans="10:10" ht="15" hidden="1" customHeight="1">
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" spans="10:10" hidden="1">
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="10:10" hidden="1">
-      <c r="J47" s="52"/>
-    </row>
-    <row r="48" spans="10:10" hidden="1">
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="10:10" ht="4.9000000000000004" customHeight="1">
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="10:10" hidden="1">
-      <c r="J50" s="52"/>
-    </row>
-    <row r="51" spans="10:10" hidden="1">
-      <c r="J51" s="52"/>
-    </row>
-    <row r="52" spans="10:10" ht="15" hidden="1" customHeight="1">
-      <c r="J52" s="52"/>
-    </row>
-    <row r="53" spans="10:10" ht="14.45" hidden="1" customHeight="1">
-      <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="10:10" hidden="1">
-      <c r="J54" s="52"/>
-    </row>
-    <row r="55" spans="10:10" ht="14.45" hidden="1" customHeight="1">
-      <c r="J55" s="52"/>
-    </row>
-    <row r="56" spans="10:10" ht="15" hidden="1" customHeight="1">
-      <c r="J56" s="52"/>
-    </row>
-    <row r="57" spans="10:10" hidden="1">
-      <c r="J57" s="52"/>
-    </row>
-    <row r="58" spans="10:10" hidden="1">
-      <c r="J58" s="52"/>
-    </row>
-    <row r="59" spans="10:10" ht="28.9" hidden="1" customHeight="1">
-      <c r="J59" s="52"/>
-    </row>
-    <row r="60" spans="10:10" ht="19.899999999999999" hidden="1" customHeight="1">
-      <c r="J60" s="53"/>
-    </row>
-    <row r="61" spans="10:10" hidden="1"/>
-    <row r="62" spans="10:10" hidden="1"/>
-    <row r="63" spans="10:10" hidden="1"/>
-    <row r="64" spans="10:10" hidden="1"/>
-    <row r="65" spans="1:10" hidden="1"/>
-    <row r="66" spans="1:10" hidden="1"/>
-    <row r="67" spans="1:10" hidden="1"/>
-    <row r="68" spans="1:10" hidden="1"/>
-    <row r="70" spans="1:10">
-      <c r="A70" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" s="144"/>
       <c r="C71" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="144"/>
       <c r="F71" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="144"/>
       <c r="C72" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="143" t="s">
+      <c r="E72" s="144"/>
+      <c r="F72" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="144"/>
-      <c r="F72" s="140" t="s">
+      <c r="G72" s="139"/>
+      <c r="H72" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G72" s="140"/>
-      <c r="H72" s="27" t="s">
+      <c r="I72" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I72" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J72" s="28"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -4895,13 +5366,13 @@
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="146"/>
+      <c r="C74" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B74" s="134"/>
-      <c r="C74" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
@@ -4911,7 +5382,7 @@
       <c r="I74" s="26"/>
       <c r="J74" s="26"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -4923,30 +5394,30 @@
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="133" t="s">
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="146"/>
+      <c r="C76" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="134"/>
-      <c r="C76" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="133" t="s">
+      <c r="E76" s="146"/>
+      <c r="F76" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E76" s="134"/>
-      <c r="F76" s="135" t="s">
+      <c r="G76" s="149"/>
+      <c r="H76" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G76" s="136"/>
-      <c r="H76" s="36" t="s">
+      <c r="I76" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I76" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="20"/>
@@ -4955,43 +5426,43 @@
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="161"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="31">
         <v>1</v>
       </c>
-      <c r="B79" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="B79" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>2</v>
       </c>
-      <c r="B80" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="120"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="120"/>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="B80" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5003,97 +5474,97 @@
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="141"/>
+      <c r="D82" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="141"/>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>1</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="124"/>
+      <c r="D83" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="120"/>
-      <c r="D83" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="121"/>
-      <c r="F83" s="121"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
       <c r="G83" s="26"/>
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="1:10" ht="13.9" customHeight="1">
+    <row r="84" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>2</v>
       </c>
-      <c r="B84" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="150"/>
-      <c r="F84" s="150"/>
+      <c r="B84" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="124"/>
+      <c r="D84" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="163"/>
+      <c r="F84" s="163"/>
       <c r="G84" s="26"/>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
       <c r="J84" s="26"/>
     </row>
-    <row r="85" spans="1:10" ht="13.9" customHeight="1">
+    <row r="85" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <v>3</v>
       </c>
-      <c r="B85" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
+      <c r="B85" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="151"/>
-      <c r="D86" s="151"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="151"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="157"/>
+      <c r="D86" s="157"/>
+      <c r="E86" s="157"/>
+      <c r="F86" s="157"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="105"/>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="109"/>
       <c r="C87" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -5103,181 +5574,181 @@
       <c r="I87" s="26"/>
       <c r="J87" s="26"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C88" s="33"/>
     </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1">
-      <c r="A89" s="181" t="s">
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="181" t="s">
+      <c r="C89" s="158"/>
+      <c r="D89" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="182"/>
-      <c r="D89" s="184" t="s">
+      <c r="E89" s="161"/>
+      <c r="F89" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="185"/>
-      <c r="F89" s="187" t="s">
+      <c r="G89" s="154"/>
+      <c r="H89" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="188"/>
-      <c r="H89" s="181" t="s">
-        <v>84</v>
-      </c>
-      <c r="I89" s="181"/>
-      <c r="J89" s="181"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="182"/>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="186"/>
-      <c r="E90" s="186"/>
-      <c r="F90" s="189"/>
-      <c r="G90" s="190"/>
-      <c r="H90" s="181"/>
-      <c r="I90" s="181"/>
-      <c r="J90" s="181"/>
-    </row>
-    <row r="91" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I89" s="150"/>
+      <c r="J89" s="150"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="158"/>
+      <c r="B90" s="159"/>
+      <c r="C90" s="159"/>
+      <c r="D90" s="162"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="150"/>
+      <c r="I90" s="150"/>
+      <c r="J90" s="150"/>
+    </row>
+    <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
         <v>1</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="151"/>
+      <c r="D91" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="180"/>
-      <c r="D91" s="120" t="s">
+      <c r="E91" s="124"/>
+      <c r="F91" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="120"/>
-      <c r="F91" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" s="102"/>
-      <c r="H91" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I91" s="120"/>
-      <c r="J91" s="120"/>
-    </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1">
+      <c r="G91" s="105"/>
+      <c r="H91" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I91" s="124"/>
+      <c r="J91" s="124"/>
+    </row>
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>2</v>
       </c>
-      <c r="B92" s="120" t="s">
+      <c r="B92" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="151"/>
+      <c r="D92" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="180"/>
-      <c r="D92" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="120"/>
-      <c r="F92" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="102"/>
-      <c r="H92" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I92" s="120"/>
-      <c r="J92" s="120"/>
-    </row>
-    <row r="93" spans="1:10" ht="30.75" customHeight="1">
+      <c r="E92" s="124"/>
+      <c r="F92" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" s="105"/>
+      <c r="H92" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I92" s="124"/>
+      <c r="J92" s="124"/>
+    </row>
+    <row r="93" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="31">
         <v>3</v>
       </c>
-      <c r="B93" s="120" t="s">
+      <c r="B93" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="151"/>
+      <c r="D93" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="180"/>
-      <c r="D93" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="120"/>
-      <c r="F93" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G93" s="102"/>
-      <c r="H93" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I93" s="120"/>
-      <c r="J93" s="120"/>
-    </row>
-    <row r="94" spans="1:10" ht="28.5" customHeight="1">
+      <c r="E93" s="124"/>
+      <c r="F93" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="105"/>
+      <c r="H93" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="124"/>
+      <c r="J93" s="124"/>
+    </row>
+    <row r="94" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="31">
         <v>4</v>
       </c>
-      <c r="B94" s="120" t="s">
+      <c r="B94" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="151"/>
+      <c r="D94" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="180"/>
-      <c r="D94" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="120"/>
-      <c r="F94" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G94" s="102"/>
-      <c r="H94" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I94" s="120"/>
-      <c r="J94" s="120"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="E94" s="124"/>
+      <c r="F94" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="105"/>
+      <c r="H94" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="I94" s="124"/>
+      <c r="J94" s="124"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="144"/>
       <c r="C103" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E103" s="144"/>
       <c r="F103" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="144"/>
       <c r="C104" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="143" t="s">
+      <c r="E104" s="144"/>
+      <c r="F104" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E104" s="144"/>
-      <c r="F104" s="140" t="s">
+      <c r="G104" s="139"/>
+      <c r="H104" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="140"/>
-      <c r="H104" s="27" t="s">
+      <c r="I104" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I104" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J104" s="28"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
@@ -5289,13 +5760,13 @@
       <c r="I105" s="26"/>
       <c r="J105" s="26"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="146"/>
+      <c r="C106" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B106" s="134"/>
-      <c r="C106" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
@@ -5305,7 +5776,7 @@
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -5317,30 +5788,30 @@
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="133" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="146"/>
+      <c r="C108" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B108" s="134"/>
-      <c r="C108" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" s="133" t="s">
+      <c r="E108" s="146"/>
+      <c r="F108" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="134"/>
-      <c r="F108" s="135" t="s">
+      <c r="G108" s="149"/>
+      <c r="H108" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="136"/>
-      <c r="H108" s="36" t="s">
+      <c r="I108" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I108" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="20"/>
@@ -5349,119 +5820,119 @@
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="161"/>
-      <c r="D110" s="161"/>
-      <c r="E110" s="161"/>
-      <c r="F110" s="161"/>
-    </row>
-    <row r="111" spans="1:10" ht="15" customHeight="1">
-      <c r="A111" s="177">
+      <c r="C110" s="152"/>
+      <c r="D110" s="152"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
+    </row>
+    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="175">
         <v>1</v>
       </c>
-      <c r="B111" s="168" t="s">
+      <c r="B111" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="167"/>
+      <c r="D111" s="167"/>
+      <c r="E111" s="167"/>
+      <c r="F111" s="168"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="176"/>
+      <c r="B112" s="169"/>
+      <c r="C112" s="170"/>
+      <c r="D112" s="170"/>
+      <c r="E112" s="170"/>
+      <c r="F112" s="171"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="176"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="170"/>
+      <c r="D113" s="170"/>
+      <c r="E113" s="170"/>
+      <c r="F113" s="171"/>
+    </row>
+    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="176"/>
+      <c r="B114" s="169"/>
+      <c r="C114" s="170"/>
+      <c r="D114" s="170"/>
+      <c r="E114" s="170"/>
+      <c r="F114" s="171"/>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="176"/>
+      <c r="B115" s="169"/>
+      <c r="C115" s="170"/>
+      <c r="D115" s="170"/>
+      <c r="E115" s="170"/>
+      <c r="F115" s="171"/>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="177"/>
+      <c r="B116" s="172"/>
+      <c r="C116" s="173"/>
+      <c r="D116" s="173"/>
+      <c r="E116" s="173"/>
+      <c r="F116" s="174"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="175">
+        <v>2</v>
+      </c>
+      <c r="B117" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="169"/>
-      <c r="D111" s="169"/>
-      <c r="E111" s="169"/>
-      <c r="F111" s="170"/>
-    </row>
-    <row r="112" spans="1:10" ht="15" customHeight="1">
-      <c r="A112" s="178"/>
-      <c r="B112" s="171"/>
-      <c r="C112" s="172"/>
-      <c r="D112" s="172"/>
-      <c r="E112" s="172"/>
-      <c r="F112" s="173"/>
-    </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1">
-      <c r="A113" s="178"/>
-      <c r="B113" s="171"/>
-      <c r="C113" s="172"/>
-      <c r="D113" s="172"/>
-      <c r="E113" s="172"/>
-      <c r="F113" s="173"/>
-    </row>
-    <row r="114" spans="1:10" ht="15" customHeight="1">
-      <c r="A114" s="178"/>
-      <c r="B114" s="171"/>
-      <c r="C114" s="172"/>
-      <c r="D114" s="172"/>
-      <c r="E114" s="172"/>
-      <c r="F114" s="173"/>
-    </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1">
-      <c r="A115" s="178"/>
-      <c r="B115" s="171"/>
-      <c r="C115" s="172"/>
-      <c r="D115" s="172"/>
-      <c r="E115" s="172"/>
-      <c r="F115" s="173"/>
-    </row>
-    <row r="116" spans="1:10" ht="15" customHeight="1">
-      <c r="A116" s="179"/>
-      <c r="B116" s="174"/>
-      <c r="C116" s="175"/>
-      <c r="D116" s="175"/>
-      <c r="E116" s="175"/>
-      <c r="F116" s="176"/>
-    </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1">
-      <c r="A117" s="177">
-        <v>2</v>
-      </c>
-      <c r="B117" s="168" t="s">
+      <c r="C117" s="167"/>
+      <c r="D117" s="167"/>
+      <c r="E117" s="167"/>
+      <c r="F117" s="168"/>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="177"/>
+      <c r="B118" s="172"/>
+      <c r="C118" s="173"/>
+      <c r="D118" s="173"/>
+      <c r="E118" s="173"/>
+      <c r="F118" s="174"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="164">
+        <v>3</v>
+      </c>
+      <c r="B119" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="169"/>
-      <c r="D117" s="169"/>
-      <c r="E117" s="169"/>
-      <c r="F117" s="170"/>
-    </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1">
-      <c r="A118" s="179"/>
-      <c r="B118" s="174"/>
-      <c r="C118" s="175"/>
-      <c r="D118" s="175"/>
-      <c r="E118" s="175"/>
-      <c r="F118" s="176"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="166">
-        <v>3</v>
-      </c>
-      <c r="B119" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="C119" s="162"/>
-      <c r="D119" s="162"/>
-      <c r="E119" s="162"/>
-      <c r="F119" s="129"/>
+      <c r="C119" s="185"/>
+      <c r="D119" s="185"/>
+      <c r="E119" s="185"/>
+      <c r="F119" s="132"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
       <c r="J119" s="26"/>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="167"/>
-      <c r="B120" s="163"/>
-      <c r="C120" s="164"/>
-      <c r="D120" s="164"/>
-      <c r="E120" s="164"/>
-      <c r="F120" s="165"/>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="165"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="187"/>
+      <c r="D120" s="187"/>
+      <c r="E120" s="187"/>
+      <c r="F120" s="188"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
       <c r="J120" s="26"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
       <c r="C121" s="26"/>
@@ -5473,176 +5944,176 @@
       <c r="I121" s="26"/>
       <c r="J121" s="26"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="141"/>
+      <c r="D122" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="142"/>
-      <c r="D122" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E122" s="142"/>
-      <c r="F122" s="142"/>
+      <c r="E122" s="141"/>
+      <c r="F122" s="141"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
         <v>1</v>
       </c>
-      <c r="B123" s="120" t="s">
+      <c r="B123" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="124"/>
+      <c r="D123" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="120"/>
-      <c r="D123" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="E123" s="121"/>
-      <c r="F123" s="121"/>
+      <c r="E123" s="142"/>
+      <c r="F123" s="142"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="31">
         <v>2</v>
       </c>
-      <c r="B124" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="149" t="s">
-        <v>112</v>
-      </c>
-      <c r="E124" s="150"/>
-      <c r="F124" s="150"/>
+      <c r="B124" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="124"/>
+      <c r="D124" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="163"/>
+      <c r="F124" s="163"/>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="31">
         <v>3</v>
       </c>
-      <c r="B125" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="124"/>
-      <c r="D125" s="158" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="159"/>
-      <c r="F125" s="160"/>
+      <c r="B125" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="127"/>
+      <c r="D125" s="179" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="180"/>
+      <c r="F125" s="181"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="31">
         <v>4</v>
       </c>
-      <c r="B126" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="124"/>
-      <c r="D126" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" s="153"/>
-      <c r="F126" s="154"/>
+      <c r="B126" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" s="127"/>
+      <c r="D126" s="182" t="s">
+        <v>76</v>
+      </c>
+      <c r="E126" s="183"/>
+      <c r="F126" s="184"/>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>5</v>
       </c>
-      <c r="B127" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="124"/>
-      <c r="D127" s="152">
+      <c r="B127" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="127"/>
+      <c r="D127" s="182">
         <f>D128</f>
         <v>0</v>
       </c>
-      <c r="E127" s="153"/>
-      <c r="F127" s="154"/>
+      <c r="E127" s="183"/>
+      <c r="F127" s="184"/>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="124"/>
-      <c r="D128" s="152"/>
-      <c r="E128" s="153"/>
-      <c r="F128" s="154"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="182"/>
+      <c r="E128" s="183"/>
+      <c r="F128" s="184"/>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
-      <c r="B129" s="122"/>
-      <c r="C129" s="124"/>
-      <c r="D129" s="152"/>
-      <c r="E129" s="153"/>
-      <c r="F129" s="154"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="182"/>
+      <c r="E129" s="183"/>
+      <c r="F129" s="184"/>
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
-      <c r="B130" s="122"/>
-      <c r="C130" s="124"/>
-      <c r="D130" s="152"/>
-      <c r="E130" s="153"/>
-      <c r="F130" s="154"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="127"/>
+      <c r="D130" s="182"/>
+      <c r="E130" s="183"/>
+      <c r="F130" s="184"/>
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
-      <c r="B131" s="155"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="152"/>
-      <c r="E131" s="153"/>
-      <c r="F131" s="154"/>
+      <c r="B131" s="190"/>
+      <c r="C131" s="191"/>
+      <c r="D131" s="182"/>
+      <c r="E131" s="183"/>
+      <c r="F131" s="184"/>
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
-      <c r="B132" s="120"/>
-      <c r="C132" s="120"/>
-      <c r="D132" s="149"/>
-      <c r="E132" s="150"/>
-      <c r="F132" s="150"/>
+      <c r="B132" s="124"/>
+      <c r="C132" s="124"/>
+      <c r="D132" s="189"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="46"/>
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
@@ -5654,191 +6125,191 @@
       <c r="I133" s="26"/>
       <c r="J133" s="26"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33"/>
-      <c r="B134" s="151"/>
-      <c r="C134" s="151"/>
-      <c r="D134" s="151"/>
-      <c r="E134" s="151"/>
-      <c r="F134" s="151"/>
-    </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1">
-      <c r="A135" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B135" s="105"/>
+      <c r="B134" s="157"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="157"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="109"/>
       <c r="C135" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" s="26"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="33"/>
     </row>
-    <row r="137" spans="1:10" ht="30">
-      <c r="A137" s="106" t="s">
+    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B137" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B137" s="108" t="s">
+      <c r="C137" s="113"/>
+      <c r="D137" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C137" s="109"/>
-      <c r="D137" s="112" t="s">
+      <c r="E137" s="117"/>
+      <c r="F137" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E137" s="113"/>
-      <c r="F137" s="42" t="s">
+      <c r="G137" s="43"/>
+      <c r="H137" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="G137" s="43"/>
-      <c r="H137" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="I137" s="116"/>
-      <c r="J137" s="109"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="107"/>
-      <c r="B138" s="110"/>
-      <c r="C138" s="111"/>
-      <c r="D138" s="114"/>
-      <c r="E138" s="115"/>
+      <c r="I137" s="120"/>
+      <c r="J137" s="113"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="111"/>
+      <c r="B138" s="114"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="118"/>
+      <c r="E138" s="119"/>
       <c r="F138" s="44"/>
       <c r="G138" s="45"/>
-      <c r="H138" s="110"/>
-      <c r="I138" s="117"/>
-      <c r="J138" s="111"/>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="H138" s="114"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="115"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>1</v>
       </c>
-      <c r="B139" s="101" t="s">
+      <c r="B139" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="105"/>
+      <c r="D139" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C139" s="102"/>
-      <c r="D139" s="101" t="s">
+      <c r="E139" s="105"/>
+      <c r="F139" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E139" s="102"/>
-      <c r="F139" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G139" s="41"/>
       <c r="H139" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I139" s="49"/>
       <c r="J139" s="41"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>2</v>
       </c>
-      <c r="B140" s="101" t="s">
+      <c r="B140" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" s="105"/>
+      <c r="D140" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C140" s="102"/>
-      <c r="D140" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="E140" s="102"/>
+      <c r="E140" s="105"/>
       <c r="F140" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G140" s="41"/>
       <c r="H140" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I140" s="49"/>
       <c r="J140" s="41"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="56">
         <v>3</v>
       </c>
-      <c r="B141" s="103" t="s">
+      <c r="B141" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="107"/>
+      <c r="D141" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="104"/>
-      <c r="D141" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" s="103"/>
+      <c r="E141" s="106"/>
       <c r="F141" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G141" s="60"/>
       <c r="H141" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I141" s="61"/>
       <c r="J141" s="60"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="62"/>
-      <c r="B142" s="146"/>
-      <c r="C142" s="147"/>
-      <c r="D142" s="146"/>
-      <c r="E142" s="147"/>
-      <c r="F142" s="146"/>
-      <c r="G142" s="147"/>
-      <c r="H142" s="146"/>
-      <c r="I142" s="148"/>
-      <c r="J142" s="147"/>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="B142" s="192"/>
+      <c r="C142" s="194"/>
+      <c r="D142" s="192"/>
+      <c r="E142" s="194"/>
+      <c r="F142" s="192"/>
+      <c r="G142" s="194"/>
+      <c r="H142" s="192"/>
+      <c r="I142" s="193"/>
+      <c r="J142" s="194"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="144"/>
       <c r="C145" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D145" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E145" s="144"/>
       <c r="F145" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G145" s="26"/>
       <c r="H145" s="26"/>
       <c r="I145" s="26"/>
       <c r="J145" s="26"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B146" s="144"/>
       <c r="C146" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146" s="143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E146" s="144"/>
-      <c r="F146" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="G146" s="140"/>
+      <c r="F146" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" s="139"/>
       <c r="H146" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I146" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I146" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J146" s="28"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
@@ -5850,13 +6321,13 @@
       <c r="I147" s="26"/>
       <c r="J147" s="26"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="146"/>
+      <c r="C148" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B148" s="134"/>
-      <c r="C148" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
@@ -5866,7 +6337,7 @@
       <c r="I148" s="26"/>
       <c r="J148" s="26"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -5878,30 +6349,30 @@
       <c r="I149" s="26"/>
       <c r="J149" s="26"/>
     </row>
-    <row r="150" spans="1:10" ht="91.5">
-      <c r="A150" s="133" t="s">
+    <row r="150" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A150" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" s="146"/>
+      <c r="C150" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="134"/>
-      <c r="C150" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="133" t="s">
+      <c r="E150" s="146"/>
+      <c r="F150" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E150" s="134"/>
-      <c r="F150" s="135" t="s">
+      <c r="G150" s="149"/>
+      <c r="H150" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G150" s="136"/>
-      <c r="H150" s="27" t="s">
+      <c r="I150" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I150" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="20"/>
@@ -5910,55 +6381,55 @@
       <c r="I151" s="26"/>
       <c r="J151" s="26"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B152" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C152" s="137"/>
-      <c r="D152" s="137"/>
-      <c r="E152" s="137"/>
-      <c r="F152" s="137"/>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="C152" s="136"/>
+      <c r="D152" s="136"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="57">
         <v>1</v>
       </c>
-      <c r="B153" s="138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C153" s="138"/>
-      <c r="D153" s="138"/>
-      <c r="E153" s="138"/>
-      <c r="F153" s="139"/>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="B153" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C153" s="137"/>
+      <c r="D153" s="137"/>
+      <c r="E153" s="137"/>
+      <c r="F153" s="138"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="46"/>
-      <c r="B154" s="140"/>
-      <c r="C154" s="140"/>
-      <c r="D154" s="140"/>
-      <c r="E154" s="140"/>
-      <c r="F154" s="140"/>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="B154" s="139"/>
+      <c r="C154" s="139"/>
+      <c r="D154" s="139"/>
+      <c r="E154" s="139"/>
+      <c r="F154" s="139"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="46"/>
-      <c r="B155" s="141"/>
-      <c r="C155" s="141"/>
-      <c r="D155" s="141"/>
-      <c r="E155" s="141"/>
-      <c r="F155" s="141"/>
-    </row>
-    <row r="156" spans="1:10" ht="14.45" customHeight="1">
+      <c r="B155" s="140"/>
+      <c r="C155" s="140"/>
+      <c r="D155" s="140"/>
+      <c r="E155" s="140"/>
+      <c r="F155" s="140"/>
+    </row>
+    <row r="156" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="46"/>
-      <c r="B156" s="140"/>
-      <c r="C156" s="140"/>
-      <c r="D156" s="140"/>
-      <c r="E156" s="140"/>
-      <c r="F156" s="140"/>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="B156" s="139"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="139"/>
+      <c r="E156" s="139"/>
+      <c r="F156" s="139"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="46"/>
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
@@ -5966,7 +6437,7 @@
       <c r="E157" s="26"/>
       <c r="F157" s="26"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
@@ -5978,217 +6449,217 @@
       <c r="I158" s="26"/>
       <c r="J158" s="26"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B159" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="141"/>
+      <c r="D159" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C159" s="142"/>
-      <c r="D159" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E159" s="142"/>
-      <c r="F159" s="142"/>
+      <c r="E159" s="141"/>
+      <c r="F159" s="141"/>
       <c r="G159" s="26"/>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
       <c r="J159" s="26"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="31">
         <v>1</v>
       </c>
-      <c r="B160" s="120" t="s">
+      <c r="B160" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C160" s="124"/>
+      <c r="D160" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="C160" s="120"/>
-      <c r="D160" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="E160" s="121"/>
-      <c r="F160" s="121"/>
+      <c r="E160" s="142"/>
+      <c r="F160" s="142"/>
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
       <c r="J160" s="26"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="31">
         <v>2</v>
       </c>
-      <c r="B161" s="120" t="s">
+      <c r="B161" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="124"/>
+      <c r="D161" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C161" s="120"/>
-      <c r="D161" s="122" t="s">
-        <v>127</v>
-      </c>
-      <c r="E161" s="123"/>
-      <c r="F161" s="124"/>
+      <c r="E161" s="126"/>
+      <c r="F161" s="127"/>
       <c r="G161" s="26"/>
       <c r="H161" s="26"/>
       <c r="I161" s="26"/>
       <c r="J161" s="26"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="31">
         <v>3</v>
       </c>
-      <c r="B162" s="122" t="s">
+      <c r="B162" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="127"/>
+      <c r="D162" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C162" s="124"/>
-      <c r="D162" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="E162" s="126"/>
-      <c r="F162" s="127"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="130"/>
       <c r="G162" s="26"/>
       <c r="H162" s="26"/>
       <c r="I162" s="26"/>
       <c r="J162" s="26"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="31">
         <v>4</v>
       </c>
-      <c r="B163" s="122" t="s">
+      <c r="B163" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="127"/>
+      <c r="D163" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C163" s="124"/>
-      <c r="D163" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="E163" s="126"/>
-      <c r="F163" s="127"/>
+      <c r="E163" s="129"/>
+      <c r="F163" s="130"/>
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
       <c r="I163" s="26"/>
       <c r="J163" s="26"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="56">
         <v>5</v>
       </c>
-      <c r="B164" s="128" t="s">
+      <c r="B164" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="132"/>
+      <c r="D164" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="C164" s="129"/>
-      <c r="D164" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" s="131"/>
-      <c r="F164" s="132"/>
+      <c r="E164" s="134"/>
+      <c r="F164" s="135"/>
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
       <c r="J164" s="26"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="58">
         <v>6</v>
       </c>
-      <c r="B165" s="118" t="s">
+      <c r="B165" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="122"/>
+      <c r="D165" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C165" s="118"/>
-      <c r="D165" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="E165" s="118"/>
-      <c r="F165" s="118"/>
+      <c r="E165" s="122"/>
+      <c r="F165" s="122"/>
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="58">
         <v>7</v>
       </c>
-      <c r="B166" s="118" t="s">
+      <c r="B166" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="122"/>
+      <c r="D166" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="118"/>
-      <c r="D166" s="118" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="118"/>
-      <c r="F166" s="118"/>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="E166" s="122"/>
+      <c r="F166" s="122"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="58">
         <v>8</v>
       </c>
-      <c r="B167" s="118" t="s">
+      <c r="B167" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="122"/>
+      <c r="D167" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="118"/>
-      <c r="D167" s="118" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" s="118"/>
-      <c r="F167" s="118"/>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="E167" s="122"/>
+      <c r="F167" s="122"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="58">
         <v>9</v>
       </c>
-      <c r="B168" s="118" t="s">
+      <c r="B168" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168" s="122"/>
+      <c r="D168" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C168" s="118"/>
-      <c r="D168" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="118"/>
-      <c r="F168" s="118"/>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="E168" s="122"/>
+      <c r="F168" s="122"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="63">
         <v>10</v>
       </c>
-      <c r="B169" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="C169" s="119"/>
-      <c r="D169" s="119">
+      <c r="B169" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="123"/>
+      <c r="D169" s="123">
         <v>245</v>
       </c>
-      <c r="E169" s="119"/>
-      <c r="F169" s="119"/>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="E169" s="123"/>
+      <c r="F169" s="123"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="64">
         <v>11</v>
       </c>
-      <c r="B170" s="96" t="s">
+      <c r="B170" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="101"/>
+      <c r="D170" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="98"/>
-      <c r="D170" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="E170" s="97"/>
-      <c r="F170" s="98"/>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="E170" s="100"/>
+      <c r="F170" s="101"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="64">
         <v>12</v>
       </c>
-      <c r="B171" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="C171" s="98"/>
-      <c r="D171" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="E171" s="97"/>
-      <c r="F171" s="98"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="B171" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C171" s="101"/>
+      <c r="D171" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E171" s="100"/>
+      <c r="F171" s="101"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="24"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -6200,7 +6671,7 @@
       <c r="I173" s="26"/>
       <c r="J173" s="26"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -6212,7 +6683,7 @@
       <c r="I174" s="26"/>
       <c r="J174" s="26"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="24"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
@@ -6224,7 +6695,7 @@
       <c r="I175" s="26"/>
       <c r="J175" s="26"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="24"/>
       <c r="B176" s="24"/>
       <c r="C176" s="24"/>
@@ -6236,7 +6707,7 @@
       <c r="I176" s="26"/>
       <c r="J176" s="26"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="24"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
@@ -6248,7 +6719,7 @@
       <c r="I177" s="26"/>
       <c r="J177" s="26"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="24"/>
       <c r="B178" s="24"/>
       <c r="C178" s="24"/>
@@ -6260,13 +6731,13 @@
       <c r="I178" s="26"/>
       <c r="J178" s="26"/>
     </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="105" t="s">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" s="109"/>
+      <c r="C179" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B179" s="105"/>
-      <c r="C179" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
@@ -6276,154 +6747,154 @@
       <c r="I179" s="26"/>
       <c r="J179" s="26"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C180" s="33"/>
     </row>
-    <row r="181" spans="1:10" ht="15" customHeight="1">
-      <c r="A181" s="106" t="s">
+    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B181" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B181" s="108" t="s">
+      <c r="C181" s="113"/>
+      <c r="D181" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C181" s="109"/>
-      <c r="D181" s="112" t="s">
+      <c r="E181" s="117"/>
+      <c r="F181" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E181" s="113"/>
-      <c r="F181" s="42" t="s">
+      <c r="G181" s="43"/>
+      <c r="H181" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="G181" s="43"/>
-      <c r="H181" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="I181" s="116"/>
-      <c r="J181" s="109"/>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="107"/>
-      <c r="B182" s="110"/>
-      <c r="C182" s="111"/>
-      <c r="D182" s="114"/>
-      <c r="E182" s="115"/>
+      <c r="I181" s="120"/>
+      <c r="J181" s="113"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="111"/>
+      <c r="B182" s="114"/>
+      <c r="C182" s="115"/>
+      <c r="D182" s="118"/>
+      <c r="E182" s="119"/>
       <c r="F182" s="44"/>
       <c r="G182" s="45"/>
-      <c r="H182" s="110"/>
-      <c r="I182" s="117"/>
-      <c r="J182" s="111"/>
-    </row>
-    <row r="183" spans="1:10" ht="15" customHeight="1">
+      <c r="H182" s="114"/>
+      <c r="I182" s="121"/>
+      <c r="J182" s="115"/>
+    </row>
+    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="31">
         <v>1</v>
       </c>
-      <c r="B183" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="C183" s="102"/>
-      <c r="D183" s="101" t="s">
+      <c r="B183" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" s="105"/>
+      <c r="D183" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E183" s="105"/>
+      <c r="F183" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E183" s="102"/>
-      <c r="F183" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G183" s="41"/>
       <c r="H183" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I183" s="49"/>
       <c r="J183" s="41"/>
     </row>
-    <row r="184" spans="1:10" ht="15" customHeight="1">
+    <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="31">
         <v>2</v>
       </c>
-      <c r="B184" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C184" s="102"/>
-      <c r="D184" s="101" t="s">
+      <c r="B184" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" s="105"/>
+      <c r="D184" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E184" s="105"/>
+      <c r="F184" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E184" s="102"/>
-      <c r="F184" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G184" s="41"/>
       <c r="H184" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I184" s="49"/>
       <c r="J184" s="41"/>
     </row>
-    <row r="185" spans="1:10" ht="15" customHeight="1">
+    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="56">
         <v>3</v>
       </c>
-      <c r="B185" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" s="104"/>
-      <c r="D185" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E185" s="103"/>
+      <c r="B185" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="107"/>
+      <c r="D185" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E185" s="106"/>
       <c r="F185" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G185" s="60"/>
       <c r="H185" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I185" s="61"/>
       <c r="J185" s="60"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="62">
         <v>4</v>
       </c>
-      <c r="B186" s="96" t="s">
+      <c r="B186" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="101"/>
+      <c r="D186" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C186" s="98"/>
-      <c r="D186" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E186" s="98"/>
-      <c r="F186" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="G186" s="98"/>
-      <c r="H186" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="I186" s="97"/>
-      <c r="J186" s="98"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="E186" s="101"/>
+      <c r="F186" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G186" s="101"/>
+      <c r="H186" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="I186" s="100"/>
+      <c r="J186" s="101"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="62">
         <v>5</v>
       </c>
-      <c r="B187" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C187" s="99"/>
-      <c r="D187" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E187" s="99"/>
-      <c r="F187" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="G187" s="99"/>
-      <c r="H187" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="I187" s="100"/>
-      <c r="J187" s="100"/>
-    </row>
-    <row r="188" spans="1:10" ht="14.45" customHeight="1">
+      <c r="B187" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C187" s="102"/>
+      <c r="D187" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E187" s="102"/>
+      <c r="F187" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="G187" s="102"/>
+      <c r="H187" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="I187" s="103"/>
+      <c r="J187" s="103"/>
+    </row>
+    <row r="188" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24"/>
       <c r="B188" s="65"/>
       <c r="C188" s="65"/>
@@ -6435,7 +6906,7 @@
       <c r="I188" s="66"/>
       <c r="J188" s="66"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="24"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -6447,59 +6918,59 @@
       <c r="I189" s="26"/>
       <c r="J189" s="26"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C190" s="33"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192" s="144"/>
       <c r="C192" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D192" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E192" s="144"/>
       <c r="F192" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G192" s="26"/>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
       <c r="J192" s="26"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B193" s="144"/>
       <c r="C193" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D193" s="143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E193" s="144"/>
-      <c r="F193" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="G193" s="140"/>
+      <c r="F193" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G193" s="139"/>
       <c r="H193" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I193" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I193" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J193" s="28"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
       <c r="C194" s="26"/>
@@ -6511,13 +6982,13 @@
       <c r="I194" s="26"/>
       <c r="J194" s="26"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B195" s="146"/>
+      <c r="C195" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B195" s="134"/>
-      <c r="C195" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29"/>
@@ -6527,7 +6998,7 @@
       <c r="I195" s="26"/>
       <c r="J195" s="26"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -6539,30 +7010,30 @@
       <c r="I196" s="26"/>
       <c r="J196" s="26"/>
     </row>
-    <row r="197" spans="1:10" ht="91.5">
-      <c r="A197" s="133" t="s">
+    <row r="197" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A197" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="146"/>
+      <c r="C197" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D197" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B197" s="134"/>
-      <c r="C197" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D197" s="133" t="s">
+      <c r="E197" s="146"/>
+      <c r="F197" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E197" s="134"/>
-      <c r="F197" s="135" t="s">
+      <c r="G197" s="149"/>
+      <c r="H197" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G197" s="136"/>
-      <c r="H197" s="27" t="s">
+      <c r="I197" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I197" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="20"/>
@@ -6571,55 +7042,55 @@
       <c r="I198" s="26"/>
       <c r="J198" s="26"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B199" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C199" s="137"/>
-      <c r="D199" s="137"/>
-      <c r="E199" s="137"/>
-      <c r="F199" s="137"/>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="C199" s="136"/>
+      <c r="D199" s="136"/>
+      <c r="E199" s="136"/>
+      <c r="F199" s="136"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="57">
         <v>1</v>
       </c>
-      <c r="B200" s="138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C200" s="138"/>
-      <c r="D200" s="138"/>
-      <c r="E200" s="138"/>
-      <c r="F200" s="139"/>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="B200" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200" s="137"/>
+      <c r="D200" s="137"/>
+      <c r="E200" s="137"/>
+      <c r="F200" s="138"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="46"/>
-      <c r="B201" s="140"/>
-      <c r="C201" s="140"/>
-      <c r="D201" s="140"/>
-      <c r="E201" s="140"/>
-      <c r="F201" s="140"/>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="B201" s="139"/>
+      <c r="C201" s="139"/>
+      <c r="D201" s="139"/>
+      <c r="E201" s="139"/>
+      <c r="F201" s="139"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="46"/>
-      <c r="B202" s="141"/>
-      <c r="C202" s="141"/>
-      <c r="D202" s="141"/>
-      <c r="E202" s="141"/>
-      <c r="F202" s="141"/>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="B202" s="140"/>
+      <c r="C202" s="140"/>
+      <c r="D202" s="140"/>
+      <c r="E202" s="140"/>
+      <c r="F202" s="140"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="46"/>
-      <c r="B203" s="140"/>
-      <c r="C203" s="140"/>
-      <c r="D203" s="140"/>
-      <c r="E203" s="140"/>
-      <c r="F203" s="140"/>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="B203" s="139"/>
+      <c r="C203" s="139"/>
+      <c r="D203" s="139"/>
+      <c r="E203" s="139"/>
+      <c r="F203" s="139"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="46"/>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
@@ -6627,7 +7098,7 @@
       <c r="E204" s="26"/>
       <c r="F204" s="26"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="26"/>
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
@@ -6639,231 +7110,231 @@
       <c r="I205" s="26"/>
       <c r="J205" s="26"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B206" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B206" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="141"/>
+      <c r="D206" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C206" s="142"/>
-      <c r="D206" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
+      <c r="E206" s="141"/>
+      <c r="F206" s="141"/>
       <c r="G206" s="26"/>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
       <c r="J206" s="26"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="31">
         <v>1</v>
       </c>
-      <c r="B207" s="120" t="s">
+      <c r="B207" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" s="124"/>
+      <c r="D207" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="C207" s="120"/>
-      <c r="D207" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="E207" s="121"/>
-      <c r="F207" s="121"/>
+      <c r="E207" s="142"/>
+      <c r="F207" s="142"/>
       <c r="G207" s="26"/>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
       <c r="J207" s="26"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="31">
         <v>2</v>
       </c>
-      <c r="B208" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C208" s="120"/>
-      <c r="D208" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="E208" s="123"/>
-      <c r="F208" s="124"/>
+      <c r="B208" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C208" s="124"/>
+      <c r="D208" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E208" s="126"/>
+      <c r="F208" s="127"/>
       <c r="G208" s="26"/>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
       <c r="J208" s="26"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="31">
         <v>3</v>
       </c>
-      <c r="B209" s="122" t="s">
+      <c r="B209" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C209" s="127"/>
+      <c r="D209" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C209" s="124"/>
-      <c r="D209" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="E209" s="126"/>
-      <c r="F209" s="127"/>
+      <c r="E209" s="129"/>
+      <c r="F209" s="130"/>
       <c r="G209" s="26"/>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
       <c r="J209" s="26"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="31">
         <v>4</v>
       </c>
-      <c r="B210" s="122" t="s">
+      <c r="B210" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" s="127"/>
+      <c r="D210" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C210" s="124"/>
-      <c r="D210" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="E210" s="126"/>
-      <c r="F210" s="127"/>
+      <c r="E210" s="129"/>
+      <c r="F210" s="130"/>
       <c r="G210" s="26"/>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
       <c r="J210" s="26"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="56">
         <v>5</v>
       </c>
-      <c r="B211" s="128" t="s">
+      <c r="B211" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" s="132"/>
+      <c r="D211" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="C211" s="129"/>
-      <c r="D211" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E211" s="131"/>
-      <c r="F211" s="132"/>
+      <c r="E211" s="134"/>
+      <c r="F211" s="135"/>
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
       <c r="J211" s="26"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="58">
         <v>6</v>
       </c>
-      <c r="B212" s="118" t="s">
+      <c r="B212" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="C212" s="122"/>
+      <c r="D212" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="C212" s="118"/>
-      <c r="D212" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="E212" s="118"/>
-      <c r="F212" s="118"/>
+      <c r="E212" s="122"/>
+      <c r="F212" s="122"/>
       <c r="G212" s="25"/>
       <c r="H212" s="25"/>
       <c r="I212" s="25"/>
       <c r="J212" s="25"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="58">
         <v>7</v>
       </c>
-      <c r="B213" s="118" t="s">
+      <c r="B213" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="C213" s="122"/>
+      <c r="D213" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="C213" s="118"/>
-      <c r="D213" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="E213" s="118"/>
-      <c r="F213" s="118"/>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="E213" s="122"/>
+      <c r="F213" s="122"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="58">
         <v>8</v>
       </c>
-      <c r="B214" s="118" t="s">
+      <c r="B214" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C214" s="122"/>
+      <c r="D214" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="C214" s="118"/>
-      <c r="D214" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="E214" s="118"/>
-      <c r="F214" s="118"/>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="E214" s="122"/>
+      <c r="F214" s="122"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="58">
         <v>9</v>
       </c>
-      <c r="B215" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="C215" s="118"/>
-      <c r="D215" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="E215" s="118"/>
-      <c r="F215" s="118"/>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="B215" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" s="122"/>
+      <c r="D215" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E215" s="122"/>
+      <c r="F215" s="122"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="63">
         <v>10</v>
       </c>
-      <c r="B216" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C216" s="119"/>
-      <c r="D216" s="119">
+      <c r="B216" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="C216" s="123"/>
+      <c r="D216" s="123">
         <v>245</v>
       </c>
-      <c r="E216" s="119"/>
-      <c r="F216" s="119"/>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="E216" s="123"/>
+      <c r="F216" s="123"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="64">
         <v>11</v>
       </c>
-      <c r="B217" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C217" s="98"/>
-      <c r="D217" s="96" t="s">
+      <c r="B217" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C217" s="101"/>
+      <c r="D217" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="E217" s="100"/>
+      <c r="F217" s="101"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="67">
+        <v>12</v>
+      </c>
+      <c r="B218" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="196"/>
+      <c r="D218" s="195" t="s">
         <v>144</v>
       </c>
-      <c r="E217" s="97"/>
-      <c r="F217" s="98"/>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="191">
-        <v>12</v>
-      </c>
-      <c r="B218" s="192" t="s">
-        <v>126</v>
-      </c>
-      <c r="C218" s="193"/>
-      <c r="D218" s="192" t="s">
-        <v>145</v>
-      </c>
-      <c r="E218" s="194"/>
-      <c r="F218" s="193"/>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="E218" s="197"/>
+      <c r="F218" s="196"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="62">
         <v>13</v>
       </c>
-      <c r="B219" s="99" t="s">
+      <c r="B219" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C219" s="102"/>
+      <c r="D219" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="C219" s="99"/>
-      <c r="D219" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="E219" s="99"/>
-      <c r="F219" s="99"/>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="E219" s="102"/>
+      <c r="F219" s="102"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="24"/>
       <c r="B220" s="24"/>
       <c r="C220" s="24"/>
@@ -6875,7 +7346,7 @@
       <c r="I220" s="26"/>
       <c r="J220" s="26"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="24"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
@@ -6887,7 +7358,7 @@
       <c r="I221" s="26"/>
       <c r="J221" s="26"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="24"/>
       <c r="B222" s="24"/>
       <c r="C222" s="24"/>
@@ -6899,7 +7370,7 @@
       <c r="I222" s="26"/>
       <c r="J222" s="26"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="24"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
@@ -6911,7 +7382,7 @@
       <c r="I223" s="26"/>
       <c r="J223" s="26"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="24"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -6923,7 +7394,7 @@
       <c r="I224" s="26"/>
       <c r="J224" s="26"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -6935,13 +7406,13 @@
       <c r="I225" s="26"/>
       <c r="J225" s="26"/>
     </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="105" t="s">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B226" s="109"/>
+      <c r="C226" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B226" s="105"/>
-      <c r="C226" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
@@ -6951,203 +7422,203 @@
       <c r="I226" s="26"/>
       <c r="J226" s="26"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C227" s="33"/>
     </row>
-    <row r="228" spans="1:10" ht="30.75">
-      <c r="A228" s="106" t="s">
+    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B228" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B228" s="108" t="s">
+      <c r="C228" s="113"/>
+      <c r="D228" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C228" s="109"/>
-      <c r="D228" s="112" t="s">
+      <c r="E228" s="117"/>
+      <c r="F228" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E228" s="113"/>
-      <c r="F228" s="42" t="s">
+      <c r="G228" s="43"/>
+      <c r="H228" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="G228" s="43"/>
-      <c r="H228" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="I228" s="116"/>
-      <c r="J228" s="109"/>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="107"/>
-      <c r="B229" s="110"/>
-      <c r="C229" s="111"/>
-      <c r="D229" s="114"/>
-      <c r="E229" s="115"/>
+      <c r="I228" s="120"/>
+      <c r="J228" s="113"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="111"/>
+      <c r="B229" s="114"/>
+      <c r="C229" s="115"/>
+      <c r="D229" s="118"/>
+      <c r="E229" s="119"/>
       <c r="F229" s="44"/>
       <c r="G229" s="45"/>
-      <c r="H229" s="110"/>
-      <c r="I229" s="117"/>
-      <c r="J229" s="111"/>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="H229" s="114"/>
+      <c r="I229" s="121"/>
+      <c r="J229" s="115"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="31">
         <v>1</v>
       </c>
-      <c r="B230" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="C230" s="102"/>
-      <c r="D230" s="101" t="s">
+      <c r="B230" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C230" s="105"/>
+      <c r="D230" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E230" s="105"/>
+      <c r="F230" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E230" s="102"/>
-      <c r="F230" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G230" s="41"/>
       <c r="H230" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I230" s="49"/>
       <c r="J230" s="41"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="31">
         <v>2</v>
       </c>
-      <c r="B231" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C231" s="102"/>
-      <c r="D231" s="101" t="s">
+      <c r="B231" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C231" s="105"/>
+      <c r="D231" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E231" s="105"/>
+      <c r="F231" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E231" s="102"/>
-      <c r="F231" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G231" s="41"/>
       <c r="H231" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I231" s="49"/>
       <c r="J231" s="41"/>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="56">
         <v>3</v>
       </c>
-      <c r="B232" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C232" s="104"/>
-      <c r="D232" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E232" s="103"/>
+      <c r="B232" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C232" s="107"/>
+      <c r="D232" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E232" s="106"/>
       <c r="F232" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G232" s="60"/>
       <c r="H232" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I232" s="61"/>
       <c r="J232" s="60"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="62">
         <v>4</v>
       </c>
-      <c r="B233" s="96" t="s">
+      <c r="B233" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C233" s="101"/>
+      <c r="D233" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C233" s="98"/>
-      <c r="D233" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E233" s="98"/>
-      <c r="F233" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="G233" s="98"/>
-      <c r="H233" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="I233" s="97"/>
-      <c r="J233" s="98"/>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="E233" s="101"/>
+      <c r="F233" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G233" s="101"/>
+      <c r="H233" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="I233" s="100"/>
+      <c r="J233" s="101"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="62">
         <v>5</v>
       </c>
-      <c r="B234" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C234" s="99"/>
-      <c r="D234" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E234" s="99"/>
-      <c r="F234" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="G234" s="99"/>
-      <c r="H234" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="I234" s="100"/>
-      <c r="J234" s="100"/>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="B234" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C234" s="102"/>
+      <c r="D234" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E234" s="102"/>
+      <c r="F234" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="G234" s="102"/>
+      <c r="H234" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="I234" s="103"/>
+      <c r="J234" s="103"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B237" s="144"/>
       <c r="C237" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D237" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E237" s="144"/>
       <c r="F237" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G237" s="26"/>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
       <c r="J237" s="26"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B238" s="144"/>
       <c r="C238" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D238" s="143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E238" s="144"/>
-      <c r="F238" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="140"/>
+      <c r="F238" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G238" s="139"/>
       <c r="H238" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I238" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I238" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="J238" s="28"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
       <c r="C239" s="26"/>
@@ -7159,13 +7630,13 @@
       <c r="I239" s="26"/>
       <c r="J239" s="26"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="146"/>
+      <c r="C240" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B240" s="134"/>
-      <c r="C240" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
@@ -7175,7 +7646,7 @@
       <c r="I240" s="26"/>
       <c r="J240" s="26"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -7187,30 +7658,30 @@
       <c r="I241" s="26"/>
       <c r="J241" s="26"/>
     </row>
-    <row r="242" spans="1:10" ht="91.5">
-      <c r="A242" s="133" t="s">
+    <row r="242" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A242" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242" s="146"/>
+      <c r="C242" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D242" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B242" s="134"/>
-      <c r="C242" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D242" s="133" t="s">
+      <c r="E242" s="146"/>
+      <c r="F242" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="E242" s="134"/>
-      <c r="F242" s="135" t="s">
+      <c r="G242" s="149"/>
+      <c r="H242" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G242" s="136"/>
-      <c r="H242" s="27" t="s">
+      <c r="I242" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I242" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="20"/>
@@ -7219,55 +7690,55 @@
       <c r="I243" s="26"/>
       <c r="J243" s="26"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B244" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C244" s="137"/>
-      <c r="D244" s="137"/>
-      <c r="E244" s="137"/>
-      <c r="F244" s="137"/>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="C244" s="136"/>
+      <c r="D244" s="136"/>
+      <c r="E244" s="136"/>
+      <c r="F244" s="136"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="57">
         <v>1</v>
       </c>
-      <c r="B245" s="138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C245" s="138"/>
-      <c r="D245" s="138"/>
-      <c r="E245" s="138"/>
-      <c r="F245" s="139"/>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="B245" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C245" s="137"/>
+      <c r="D245" s="137"/>
+      <c r="E245" s="137"/>
+      <c r="F245" s="138"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="46"/>
-      <c r="B246" s="140"/>
-      <c r="C246" s="140"/>
-      <c r="D246" s="140"/>
-      <c r="E246" s="140"/>
-      <c r="F246" s="140"/>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="B246" s="139"/>
+      <c r="C246" s="139"/>
+      <c r="D246" s="139"/>
+      <c r="E246" s="139"/>
+      <c r="F246" s="139"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="46"/>
-      <c r="B247" s="141"/>
-      <c r="C247" s="141"/>
-      <c r="D247" s="141"/>
-      <c r="E247" s="141"/>
-      <c r="F247" s="141"/>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="B247" s="140"/>
+      <c r="C247" s="140"/>
+      <c r="D247" s="140"/>
+      <c r="E247" s="140"/>
+      <c r="F247" s="140"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="46"/>
-      <c r="B248" s="140"/>
-      <c r="C248" s="140"/>
-      <c r="D248" s="140"/>
-      <c r="E248" s="140"/>
-      <c r="F248" s="140"/>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="B248" s="139"/>
+      <c r="C248" s="139"/>
+      <c r="D248" s="139"/>
+      <c r="E248" s="139"/>
+      <c r="F248" s="139"/>
+    </row>
+    <row r="249" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="46"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
@@ -7275,7 +7746,7 @@
       <c r="E249" s="26"/>
       <c r="F249" s="26"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
       <c r="C250" s="26"/>
@@ -7287,213 +7758,213 @@
       <c r="I250" s="26"/>
       <c r="J250" s="26"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B251" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B251" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251" s="205"/>
+      <c r="D251" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="C251" s="142"/>
-      <c r="D251" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="E251" s="142"/>
-      <c r="F251" s="142"/>
+      <c r="E251" s="219"/>
+      <c r="F251" s="205"/>
       <c r="G251" s="26"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
       <c r="J251" s="26"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="31">
         <v>1</v>
       </c>
-      <c r="B252" s="120" t="s">
+      <c r="B252" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="105"/>
+      <c r="D252" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="C252" s="120"/>
-      <c r="D252" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="E252" s="121"/>
-      <c r="F252" s="121"/>
+      <c r="E252" s="217"/>
+      <c r="F252" s="218"/>
       <c r="G252" s="26"/>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
       <c r="J252" s="26"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="31">
         <v>2</v>
       </c>
-      <c r="B253" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C253" s="120"/>
-      <c r="D253" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="E253" s="123"/>
-      <c r="F253" s="124"/>
+      <c r="B253" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C253" s="105"/>
+      <c r="D253" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E253" s="126"/>
+      <c r="F253" s="127"/>
       <c r="G253" s="26"/>
       <c r="H253" s="26"/>
       <c r="I253" s="26"/>
       <c r="J253" s="26"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="31">
         <v>3</v>
       </c>
-      <c r="B254" s="122" t="s">
+      <c r="B254" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C254" s="127"/>
+      <c r="D254" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C254" s="124"/>
-      <c r="D254" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="E254" s="126"/>
-      <c r="F254" s="127"/>
+      <c r="E254" s="129"/>
+      <c r="F254" s="130"/>
       <c r="G254" s="26"/>
       <c r="H254" s="26"/>
       <c r="I254" s="26"/>
       <c r="J254" s="26"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="31">
         <v>4</v>
       </c>
-      <c r="B255" s="122" t="s">
+      <c r="B255" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C255" s="127"/>
+      <c r="D255" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C255" s="124"/>
-      <c r="D255" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="E255" s="126"/>
-      <c r="F255" s="127"/>
+      <c r="E255" s="129"/>
+      <c r="F255" s="130"/>
       <c r="G255" s="26"/>
       <c r="H255" s="26"/>
       <c r="I255" s="26"/>
       <c r="J255" s="26"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="56">
         <v>5</v>
       </c>
-      <c r="B256" s="128" t="s">
+      <c r="B256" s="214" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" s="215"/>
+      <c r="D256" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="C256" s="129"/>
-      <c r="D256" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E256" s="131"/>
-      <c r="F256" s="132"/>
+      <c r="E256" s="212"/>
+      <c r="F256" s="213"/>
       <c r="G256" s="26"/>
       <c r="H256" s="26"/>
       <c r="I256" s="26"/>
       <c r="J256" s="26"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="58">
         <v>6</v>
       </c>
-      <c r="B257" s="118" t="s">
+      <c r="B257" s="208" t="s">
+        <v>172</v>
+      </c>
+      <c r="C257" s="210"/>
+      <c r="D257" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="C257" s="118"/>
-      <c r="D257" s="118" t="s">
-        <v>174</v>
-      </c>
-      <c r="E257" s="118"/>
-      <c r="F257" s="118"/>
+      <c r="E257" s="209"/>
+      <c r="F257" s="210"/>
       <c r="G257" s="25"/>
       <c r="H257" s="25"/>
       <c r="I257" s="25"/>
       <c r="J257" s="25"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="58">
         <v>7</v>
       </c>
-      <c r="B258" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="C258" s="118"/>
-      <c r="D258" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="E258" s="118"/>
-      <c r="F258" s="118"/>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="B258" s="208" t="s">
+        <v>174</v>
+      </c>
+      <c r="C258" s="210"/>
+      <c r="D258" s="208" t="s">
+        <v>160</v>
+      </c>
+      <c r="E258" s="209"/>
+      <c r="F258" s="210"/>
+    </row>
+    <row r="259" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="58">
         <v>8</v>
       </c>
-      <c r="B259" s="118" t="s">
+      <c r="B259" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="C259" s="210"/>
+      <c r="D259" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="C259" s="118"/>
-      <c r="D259" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="E259" s="118"/>
-      <c r="F259" s="118"/>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="E259" s="209"/>
+      <c r="F259" s="210"/>
+    </row>
+    <row r="260" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="63">
         <v>9</v>
       </c>
-      <c r="B260" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="C260" s="119"/>
-      <c r="D260" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="E260" s="119"/>
-      <c r="F260" s="119"/>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="B260" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="C260" s="210"/>
+      <c r="D260" s="208" t="s">
+        <v>140</v>
+      </c>
+      <c r="E260" s="209"/>
+      <c r="F260" s="210"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="58">
         <v>10</v>
       </c>
-      <c r="B261" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="C261" s="118"/>
-      <c r="D261" s="118">
+      <c r="B261" s="208" t="s">
+        <v>177</v>
+      </c>
+      <c r="C261" s="210"/>
+      <c r="D261" s="208">
         <v>245</v>
       </c>
-      <c r="E261" s="118"/>
-      <c r="F261" s="118"/>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="195"/>
-      <c r="B262" s="196"/>
-      <c r="C262" s="196"/>
-      <c r="D262" s="196"/>
-      <c r="E262" s="196"/>
-      <c r="F262" s="196"/>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="195"/>
-      <c r="B263" s="196"/>
-      <c r="C263" s="196"/>
-      <c r="D263" s="196"/>
-      <c r="E263" s="196"/>
-      <c r="F263" s="196"/>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="197"/>
-      <c r="B264" s="196"/>
-      <c r="C264" s="196"/>
-      <c r="D264" s="196"/>
-      <c r="E264" s="196"/>
-      <c r="F264" s="196"/>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="E261" s="209"/>
+      <c r="F261" s="210"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="68"/>
+      <c r="B262" s="197"/>
+      <c r="C262" s="197"/>
+      <c r="D262" s="197"/>
+      <c r="E262" s="197"/>
+      <c r="F262" s="197"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="68"/>
+      <c r="B263" s="108"/>
+      <c r="C263" s="108"/>
+      <c r="D263" s="108"/>
+      <c r="E263" s="108"/>
+      <c r="F263" s="108"/>
+    </row>
+    <row r="264" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="69"/>
+      <c r="B264" s="108"/>
+      <c r="C264" s="108"/>
+      <c r="D264" s="108"/>
+      <c r="E264" s="108"/>
+      <c r="F264" s="108"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="24"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -7505,7 +7976,7 @@
       <c r="I265" s="26"/>
       <c r="J265" s="26"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="24"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
@@ -7517,7 +7988,7 @@
       <c r="I266" s="26"/>
       <c r="J266" s="26"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="24"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -7529,7 +8000,7 @@
       <c r="I267" s="26"/>
       <c r="J267" s="26"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="24"/>
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
@@ -7541,7 +8012,7 @@
       <c r="I268" s="26"/>
       <c r="J268" s="26"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="24"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -7553,7 +8024,7 @@
       <c r="I269" s="26"/>
       <c r="J269" s="26"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="24"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
@@ -7565,13 +8036,13 @@
       <c r="I270" s="26"/>
       <c r="J270" s="26"/>
     </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="105" t="s">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B271" s="109"/>
+      <c r="C271" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B271" s="105"/>
-      <c r="C271" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D271" s="26"/>
       <c r="E271" s="26"/>
@@ -7581,216 +8052,726 @@
       <c r="I271" s="26"/>
       <c r="J271" s="26"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C272" s="33"/>
     </row>
-    <row r="273" spans="1:10" ht="30.75">
-      <c r="A273" s="106" t="s">
+    <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B273" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B273" s="108" t="s">
+      <c r="C273" s="113"/>
+      <c r="D273" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C273" s="109"/>
-      <c r="D273" s="112" t="s">
+      <c r="E273" s="117"/>
+      <c r="F273" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E273" s="113"/>
-      <c r="F273" s="42" t="s">
+      <c r="G273" s="43"/>
+      <c r="H273" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="G273" s="43"/>
-      <c r="H273" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="I273" s="116"/>
-      <c r="J273" s="109"/>
-    </row>
-    <row r="274" spans="1:10">
-      <c r="A274" s="107"/>
-      <c r="B274" s="110"/>
-      <c r="C274" s="111"/>
-      <c r="D274" s="114"/>
-      <c r="E274" s="115"/>
+      <c r="I273" s="120"/>
+      <c r="J273" s="113"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="111"/>
+      <c r="B274" s="114"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="119"/>
       <c r="F274" s="44"/>
       <c r="G274" s="45"/>
-      <c r="H274" s="110"/>
-      <c r="I274" s="117"/>
-      <c r="J274" s="111"/>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="H274" s="114"/>
+      <c r="I274" s="121"/>
+      <c r="J274" s="115"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="31">
         <v>1</v>
       </c>
-      <c r="B275" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="C275" s="102"/>
-      <c r="D275" s="101" t="s">
+      <c r="B275" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C275" s="105"/>
+      <c r="D275" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E275" s="105"/>
+      <c r="F275" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E275" s="102"/>
-      <c r="F275" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G275" s="41"/>
       <c r="H275" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I275" s="49"/>
       <c r="J275" s="41"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="31">
         <v>2</v>
       </c>
-      <c r="B276" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C276" s="102"/>
-      <c r="D276" s="101" t="s">
+      <c r="B276" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C276" s="105"/>
+      <c r="D276" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E276" s="105"/>
+      <c r="F276" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="E276" s="102"/>
-      <c r="F276" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="G276" s="41"/>
       <c r="H276" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I276" s="49"/>
       <c r="J276" s="41"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="56">
         <v>3</v>
       </c>
-      <c r="B277" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C277" s="104"/>
-      <c r="D277" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="E277" s="103"/>
+      <c r="B277" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C277" s="107"/>
+      <c r="D277" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E277" s="106"/>
       <c r="F277" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G277" s="60"/>
       <c r="H277" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I277" s="61"/>
       <c r="J277" s="60"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="62">
         <v>4</v>
       </c>
-      <c r="B278" s="96" t="s">
+      <c r="B278" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C278" s="101"/>
+      <c r="D278" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C278" s="98"/>
-      <c r="D278" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E278" s="98"/>
-      <c r="F278" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="G278" s="98"/>
-      <c r="H278" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="I278" s="97"/>
-      <c r="J278" s="98"/>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="E278" s="101"/>
+      <c r="F278" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="G278" s="101"/>
+      <c r="H278" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="I278" s="100"/>
+      <c r="J278" s="101"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="62">
         <v>5</v>
       </c>
-      <c r="B279" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C279" s="99"/>
-      <c r="D279" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E279" s="99"/>
-      <c r="F279" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="G279" s="99"/>
-      <c r="H279" s="100" t="s">
+      <c r="B279" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C279" s="102"/>
+      <c r="D279" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E279" s="102"/>
+      <c r="F279" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="G279" s="102"/>
+      <c r="H279" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="I279" s="103"/>
+      <c r="J279" s="103"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="143"/>
+      <c r="C282" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D282" s="143" t="s">
+        <v>49</v>
+      </c>
+      <c r="E282" s="144"/>
+      <c r="F282" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G282" s="26"/>
+      <c r="H282" s="26"/>
+      <c r="I282" s="26"/>
+      <c r="J282" s="26"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" s="143"/>
+      <c r="C283" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D283" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="E283" s="144"/>
+      <c r="F283" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="G283" s="139"/>
+      <c r="H283" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J283" s="28"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" s="26"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="26"/>
+      <c r="I284" s="26"/>
+      <c r="J284" s="26"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B285" s="145"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="29"/>
+      <c r="E285" s="29"/>
+      <c r="F285" s="29"/>
+      <c r="G285" s="26"/>
+      <c r="H285" s="26"/>
+      <c r="I285" s="26"/>
+      <c r="J285" s="26"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="29"/>
+      <c r="B286" s="29"/>
+      <c r="C286" s="29"/>
+      <c r="D286" s="29"/>
+      <c r="E286" s="29"/>
+      <c r="F286" s="29"/>
+      <c r="G286" s="26"/>
+      <c r="H286" s="26"/>
+      <c r="I286" s="26"/>
+      <c r="J286" s="26"/>
+    </row>
+    <row r="287" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A287" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B287" s="147"/>
+      <c r="C287" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D287" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="E287" s="146"/>
+      <c r="F287" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="G287" s="149"/>
+      <c r="H287" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="29"/>
+      <c r="B288" s="29"/>
+      <c r="C288" s="20"/>
+      <c r="G288" s="26"/>
+      <c r="H288" s="26"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I279" s="100"/>
-      <c r="J279" s="100"/>
+      <c r="B289" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="C289" s="152"/>
+      <c r="D289" s="152"/>
+      <c r="E289" s="152"/>
+      <c r="F289" s="152"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26"/>
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B292" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="C292" s="205"/>
+      <c r="D292" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="E292" s="141"/>
+      <c r="F292" s="141"/>
+      <c r="G292" s="26"/>
+      <c r="H292" s="26"/>
+      <c r="I292" s="26"/>
+      <c r="J292" s="26"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="31">
+        <v>1</v>
+      </c>
+      <c r="B293" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C293" s="105"/>
+      <c r="D293" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="E293" s="163"/>
+      <c r="F293" s="163"/>
+      <c r="G293" s="26"/>
+      <c r="H293" s="26"/>
+      <c r="I293" s="26"/>
+      <c r="J293" s="26"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="31">
+        <v>2</v>
+      </c>
+      <c r="B294" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C294" s="105"/>
+      <c r="D294" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="E294" s="163"/>
+      <c r="F294" s="163"/>
+      <c r="G294" s="26"/>
+      <c r="H294" s="26"/>
+      <c r="I294" s="26"/>
+      <c r="J294" s="26"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G295" s="26"/>
+      <c r="H295" s="26"/>
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B296" s="109"/>
+      <c r="C296" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D296" s="26"/>
+      <c r="E296" s="26"/>
+      <c r="F296" s="26"/>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
+      <c r="I296" s="26"/>
+      <c r="J296" s="26"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C297" s="33"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B298" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C298" s="158"/>
+      <c r="D298" s="160" t="s">
+        <v>81</v>
+      </c>
+      <c r="E298" s="161"/>
+      <c r="F298" s="206" t="s">
+        <v>82</v>
+      </c>
+      <c r="G298" s="206"/>
+      <c r="H298" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="I298" s="150"/>
+      <c r="J298" s="150"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="158"/>
+      <c r="B299" s="159"/>
+      <c r="C299" s="159"/>
+      <c r="D299" s="162"/>
+      <c r="E299" s="162"/>
+      <c r="F299" s="206"/>
+      <c r="G299" s="206"/>
+      <c r="H299" s="150"/>
+      <c r="I299" s="150"/>
+      <c r="J299" s="150"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="31">
+        <v>1</v>
+      </c>
+      <c r="B300" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C300" s="105"/>
+      <c r="D300" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E300" s="105"/>
+      <c r="F300" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G300" s="105"/>
+      <c r="H300" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="I300" s="207"/>
+      <c r="J300" s="105"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="31">
+        <v>2</v>
+      </c>
+      <c r="B301" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C301" s="105"/>
+      <c r="D301" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="E301" s="105"/>
+      <c r="F301" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G301" s="105"/>
+      <c r="H301" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="I301" s="207"/>
+      <c r="J301" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="326">
-    <mergeCell ref="H278:J278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:J279"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:C274"/>
-    <mergeCell ref="D273:E274"/>
-    <mergeCell ref="H273:J274"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:F258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:F259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:F260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="D261:F261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="D262:F262"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="D257:F257"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:G242"/>
+  <mergeCells count="356">
+    <mergeCell ref="H298:J299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:F292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:C299"/>
+    <mergeCell ref="D298:E299"/>
+    <mergeCell ref="F298:G299"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="H234:J234"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B228:C229"/>
+    <mergeCell ref="D228:E229"/>
+    <mergeCell ref="H228:J229"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:C182"/>
+    <mergeCell ref="D181:E182"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="H181:J182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="H137:J138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D137:E138"/>
+    <mergeCell ref="B137:C138"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="B119:F120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B111:F116"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B117:F118"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F89:G90"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="H89:J90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:C90"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
@@ -7815,247 +8796,67 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="H89:J90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:C90"/>
-    <mergeCell ref="D89:E90"/>
-    <mergeCell ref="F89:G90"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B111:F116"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B117:F118"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="B119:F120"/>
-    <mergeCell ref="H137:J138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D137:E138"/>
-    <mergeCell ref="B137:C138"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="H181:J182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:C182"/>
-    <mergeCell ref="D181:E182"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:J187"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:G197"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B228:C229"/>
-    <mergeCell ref="D228:E229"/>
-    <mergeCell ref="H228:J229"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="H234:J234"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="D257:F257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:F259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="D261:F261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:C274"/>
+    <mergeCell ref="D273:E274"/>
+    <mergeCell ref="H273:J274"/>
+    <mergeCell ref="H278:J278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:J279"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D124" r:id="rId1" xr:uid="{AC4BFD26-AB0F-46A7-8AC4-31951DE12553}"/>
@@ -8075,6 +8876,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D27483CF1B63FA4AA03D15E9EA85AD57" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc40f05d5172330021a6e9de5317fd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c078926d-f3db-4b74-bbd0-f33b483d4b1e" xmlns:ns4="806a97cf-37b5-43d8-9f6a-27e74bb9243f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98100bc02576a7c959853f71e43f81a" ns3:_="" ns4:_="">
     <xsd:import namespace="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
@@ -8291,23 +9101,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2B2261-6191-43A6-8C41-B739157DC3A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2B2261-6191-43A6-8C41-B739157DC3A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
+    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>